--- a/NiTiErp/wwwroot/export-files/ChamCongNgay.xlsx
+++ b/NiTiErp/wwwroot/export-files/ChamCongNgay.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>vv</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t xml:space="preserve">BẢNG CHẤM CÔNG </t>
+  </si>
+  <si>
+    <t>(Tháng 10/2018)</t>
   </si>
   <si>
     <t>STT</t>
@@ -145,10 +148,25 @@
     <t>1</t>
   </si>
   <si>
+    <t>Bích Lệ</t>
+  </si>
+  <si>
+    <t>Phòng Kinh Doanh</t>
+  </si>
+  <si>
+    <t>Nhân viên (Đại học)</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Lê Minh Hoàng</t>
   </si>
   <si>
     <t>An Giang, ngày ….. tháng ….. Năm ……..</t>
@@ -165,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -207,6 +225,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,11 +247,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFCFCF" tint="0"/>
+        <fgColor rgb="FFDDDDDD" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -251,13 +275,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -272,7 +296,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -284,13 +338,142 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -309,6 +492,13 @@
       <bottom style="dotted"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -318,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,88 +530,136 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +946,7 @@
   <dimension ref="A2:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -724,70 +962,103 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4">
       <c r="B4" s="6"/>
     </row>
     <row r="5">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
     </row>
     <row r="6">
-      <c r="B6" s="25"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="B6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
     </row>
     <row r="7" ht="8.25" customHeight="1">
       <c r="B7" s="5"/>
@@ -814,356 +1085,586 @@
       <c r="W7" s="5"/>
     </row>
     <row r="8" ht="9" customHeight="1">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" ht="11.25" s="8" customFormat="1">
-      <c r="B9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" ht="11.25" s="7" customFormat="1">
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" ht="11.25" s="9" customFormat="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="15" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="15" t="s">
+    </row>
+    <row r="10" ht="12" s="8" customFormat="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="L10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="N10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="O10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="P10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="Q10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="R10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="S10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="T10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="U10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="V10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="W10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="X10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="Y10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="Z10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AA10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AB10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AC10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AD10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AE10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AG10" s="15" t="s">
+      <c r="AF10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AG10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AH10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AI10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AK10" s="28"/>
-    </row>
-    <row r="11" ht="9" s="12" customFormat="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="33" t="s">
+      <c r="AJ10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="AK10" s="42"/>
+    </row>
+    <row r="11" ht="9" s="11" customFormat="1">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="37"/>
+    </row>
+    <row r="12" ht="9" customHeight="1">
+      <c r="B12" s="45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="33" t="s">
+      <c r="C12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="9" s="12" customFormat="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="20"/>
-    </row>
-    <row r="15" ht="9" s="12" customFormat="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="23"/>
-    </row>
-    <row r="16" ht="9" s="12" customFormat="1">
-      <c r="B16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-    </row>
-    <row r="17" ht="11.25" s="9" customFormat="1">
-      <c r="B17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="AA17" s="9" t="s">
+      <c r="D12" s="46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" ht="11.25" s="9" customFormat="1">
-      <c r="B18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="AA18" s="9" t="s">
+      <c r="E12" s="47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" ht="11.25" s="9" customFormat="1">
-      <c r="B19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" ht="11.25" s="9" customFormat="1">
-      <c r="B20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" ht="11.25" s="9" customFormat="1">
-      <c r="B21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="F12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ12" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="9" customHeight="1">
+      <c r="B13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ13" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK13" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="9" s="11" customFormat="1">
+      <c r="B14" s="26"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="27"/>
+    </row>
+    <row r="15" ht="9.75" s="11" customFormat="1">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="32"/>
+    </row>
+    <row r="16" ht="9" s="11" customFormat="1">
+      <c r="B16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+    </row>
+    <row r="17" ht="11.25" s="8" customFormat="1">
+      <c r="B17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="AA17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+    </row>
+    <row r="18" ht="11.25" s="8" customFormat="1">
+      <c r="B18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="AA18" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+    </row>
+    <row r="19" ht="11.25" s="8" customFormat="1">
+      <c r="B19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="11.25" s="8" customFormat="1">
+      <c r="B20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="11.25" s="8" customFormat="1">
+      <c r="B21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="AA17:AK17"/>
+    <mergeCell ref="AA18:AK18"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="B6:AK6"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:B10"/>
